--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,37 +424,165 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Accuracy score with TfidfTransformer</t>
+          <t>Model 1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Accuracy score with CountVectorizer</t>
+          <t>Model 2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>t-statistic</t>
+          <t>Model 3</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>p-value</t>
+          <t>Model 4</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Model 5</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Model 6</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Model 7</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Model 8</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Model 9</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Model 10</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Model 11</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Model 12</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Model 13</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Model 14</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Model 15</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Model 16</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Model 17</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Model 18</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>f statistics</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>p value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.823287307488051</v>
+        <v>0.97375</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7497344662772172</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.072010803942737</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4.030338039230839e-07</v>
+        <v>0.94125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.99125</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.98625</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.99375</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9662500000000001</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.98625</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.98875</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6725</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8675</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8.967900069247188</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.121282477337712e-23</v>
       </c>
     </row>
   </sheetData>
